--- a/output/1Y_P104_KFSDIV.xlsx
+++ b/output/1Y_P104_KFSDIV.xlsx
@@ -655,7 +655,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -727,16 +727,16 @@
         <v>11.5294</v>
       </c>
       <c r="C2" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D2" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>10.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E3" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="F3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="H3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0534</v>
+        <v>-0.0572</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>11.2587</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E4" s="1">
-        <v>1783.6282</v>
+        <v>1780.0664</v>
       </c>
       <c r="F4" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="H4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.2131</v>
+        <v>11.2355</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0316</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>11.6434</v>
       </c>
       <c r="C5" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D5" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E5" s="1">
-        <v>2671.8302</v>
+        <v>2666.4891</v>
       </c>
       <c r="F5" s="1">
-        <v>858.8557</v>
+        <v>857.1404</v>
       </c>
       <c r="H5" s="1">
-        <v>31109.1883</v>
+        <v>30984.8699</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31109.1883</v>
+        <v>30984.8699</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2283</v>
+        <v>11.2507</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0342</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>11.3141</v>
       </c>
       <c r="C6" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D6" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E6" s="1">
-        <v>3530.6859</v>
+        <v>3523.6295</v>
       </c>
       <c r="F6" s="1">
-        <v>883.8529</v>
+        <v>882.0830999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>39946.5334</v>
+        <v>39787.0625</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>39946.5334</v>
+        <v>39787.0625</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>11.3292</v>
+        <v>11.3519</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>961.8588999999999</v>
+        <v>959.9361</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9038.141100000001</v>
+        <v>-9040.063899999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0283</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>11.003</v>
       </c>
       <c r="C7" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D7" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E7" s="1">
-        <v>4414.5388</v>
+        <v>4405.7126</v>
       </c>
       <c r="F7" s="1">
-        <v>921.3313000000001</v>
+        <v>919.4596</v>
       </c>
       <c r="H7" s="1">
-        <v>48573.1704</v>
+        <v>48379.1304</v>
       </c>
       <c r="I7" s="1">
-        <v>961.8588999999999</v>
+        <v>959.9361</v>
       </c>
       <c r="J7" s="1">
-        <v>49535.0293</v>
+        <v>49339.0665</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.3262</v>
+        <v>11.3489</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10137.4084</v>
+        <v>-10137.1337</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.008200000000000001</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>11.1102</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E8" s="1">
-        <v>5335.8701</v>
+        <v>5325.1722</v>
       </c>
       <c r="F8" s="1">
-        <v>912.4334</v>
+        <v>910.5892</v>
       </c>
       <c r="H8" s="1">
-        <v>59282.5841</v>
+        <v>59045.5094</v>
       </c>
       <c r="I8" s="1">
-        <v>824.4505</v>
+        <v>822.8022999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>60107.0346</v>
+        <v>59868.3117</v>
       </c>
       <c r="K8" s="1">
-        <v>60137.4084</v>
+        <v>60137.1337</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2704</v>
+        <v>11.293</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10137.4084</v>
+        <v>-10137.1337</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.009599999999999999</v>
+        <v>0.0089</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>10.623</v>
       </c>
       <c r="C9" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D9" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E9" s="1">
-        <v>6248.3035</v>
+        <v>6235.7614</v>
       </c>
       <c r="F9" s="1">
-        <v>954.2886999999999</v>
+        <v>952.3533</v>
       </c>
       <c r="H9" s="1">
-        <v>66375.72779999999</v>
+        <v>66109.6712</v>
       </c>
       <c r="I9" s="1">
-        <v>687.0421</v>
+        <v>685.6686</v>
       </c>
       <c r="J9" s="1">
-        <v>67062.7699</v>
+        <v>66795.3398</v>
       </c>
       <c r="K9" s="1">
-        <v>70274.8168</v>
+        <v>70274.2674</v>
       </c>
       <c r="L9" s="1">
-        <v>11.247</v>
+        <v>11.2696</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>480.2283</v>
+        <v>479.2655</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9657.1801</v>
+        <v>-9657.868200000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0434</v>
+        <v>-0.044</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>9.977</v>
       </c>
       <c r="C10" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E10" s="1">
-        <v>7202.5921</v>
+        <v>7188.1146</v>
       </c>
       <c r="F10" s="1">
-        <v>1028.1112</v>
+        <v>1026.0028</v>
       </c>
       <c r="H10" s="1">
-        <v>71860.2617</v>
+        <v>71572.05710000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1029.862</v>
+        <v>1027.8004</v>
       </c>
       <c r="J10" s="1">
-        <v>72890.1237</v>
+        <v>72599.8575</v>
       </c>
       <c r="K10" s="1">
-        <v>80412.2252</v>
+        <v>80411.40119999999</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1643</v>
+        <v>11.1867</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10257.4655</v>
+        <v>-10256.9501</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0541</v>
+        <v>-0.0546</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>10.5542</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E11" s="1">
-        <v>8230.703299999999</v>
+        <v>8214.117399999999</v>
       </c>
       <c r="F11" s="1">
-        <v>971.8847</v>
+        <v>969.8877</v>
       </c>
       <c r="H11" s="1">
-        <v>86868.4892</v>
+        <v>86520.1202</v>
       </c>
       <c r="I11" s="1">
-        <v>772.3964999999999</v>
+        <v>770.8502999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>87640.88559999999</v>
+        <v>87290.9705</v>
       </c>
       <c r="K11" s="1">
-        <v>90669.69070000001</v>
+        <v>90668.35129999999</v>
       </c>
       <c r="L11" s="1">
-        <v>11.016</v>
+        <v>11.0381</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10257.4655</v>
+        <v>-10256.9501</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0573</v>
+        <v>0.0568</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>10.7815</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E12" s="1">
-        <v>9202.588</v>
+        <v>9184.0051</v>
       </c>
       <c r="F12" s="1">
-        <v>951.395</v>
+        <v>949.4451</v>
       </c>
       <c r="H12" s="1">
-        <v>99217.7029</v>
+        <v>98818.9764</v>
       </c>
       <c r="I12" s="1">
-        <v>514.931</v>
+        <v>513.9002</v>
       </c>
       <c r="J12" s="1">
-        <v>99732.6339</v>
+        <v>99332.8766</v>
       </c>
       <c r="K12" s="1">
-        <v>100927.1562</v>
+        <v>100925.3014</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9673</v>
+        <v>10.9892</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10257.4655</v>
+        <v>-10256.9501</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0214</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>10.9292</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E13" s="1">
-        <v>10153.9831</v>
+        <v>10133.4502</v>
       </c>
       <c r="F13" s="1">
-        <v>938.5376</v>
+        <v>936.6137</v>
       </c>
       <c r="H13" s="1">
-        <v>110974.9117</v>
+        <v>110528.581</v>
       </c>
       <c r="I13" s="1">
-        <v>257.4655</v>
+        <v>256.9501</v>
       </c>
       <c r="J13" s="1">
-        <v>111232.3772</v>
+        <v>110785.5311</v>
       </c>
       <c r="K13" s="1">
-        <v>111184.6217</v>
+        <v>111182.2515</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9499</v>
+        <v>10.9718</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-10257.4655</v>
+        <v>-10256.9501</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>10.337</v>
       </c>
       <c r="C14" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D14" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E14" s="1">
-        <v>11092.5207</v>
+        <v>11070.0638</v>
       </c>
       <c r="F14" s="1">
-        <v>-11092.5207</v>
+        <v>-11070.0638</v>
       </c>
       <c r="H14" s="1">
-        <v>114663.3864</v>
+        <v>114202.0997</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114663.3864</v>
+        <v>114202.0997</v>
       </c>
       <c r="K14" s="1">
-        <v>121442.0872</v>
+        <v>121439.2016</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9481</v>
+        <v>10.9701</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114663.3864</v>
+        <v>114202.0997</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0542</v>
+        <v>-0.0545</v>
       </c>
     </row>
   </sheetData>
@@ -1384,9 +1384,9 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
@@ -1456,16 +1456,16 @@
         <v>11.5294</v>
       </c>
       <c r="C2" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D2" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>10.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E3" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="F3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0534</v>
+        <v>-0.0572</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>11.2587</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E4" s="1">
-        <v>1783.6282</v>
+        <v>1780.0664</v>
       </c>
       <c r="F4" s="1">
-        <v>881.0015</v>
+        <v>889.8754</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.2131</v>
+        <v>11.2355</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9918.9313</v>
+        <v>-10038.9509</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0316</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>11.6434</v>
       </c>
       <c r="C5" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D5" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E5" s="1">
-        <v>2664.6297</v>
+        <v>2669.9418</v>
       </c>
       <c r="F5" s="1">
-        <v>770.7929</v>
+        <v>772.3694</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>31025.3495</v>
+        <v>31024.9907</v>
       </c>
       <c r="I5" s="1">
-        <v>81.06870000000001</v>
+        <v>-38.9509</v>
       </c>
       <c r="J5" s="1">
-        <v>31106.4183</v>
+        <v>30986.0397</v>
       </c>
       <c r="K5" s="1">
-        <v>29918.9313</v>
+        <v>30038.9509</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2282</v>
+        <v>11.2508</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-8974.6505</v>
+        <v>-9011.0018</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0341</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>11.3141</v>
       </c>
       <c r="C6" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D6" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E6" s="1">
-        <v>3435.4226</v>
+        <v>3442.3112</v>
       </c>
       <c r="F6" s="1">
-        <v>981.644</v>
+        <v>965.8852000000001</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>38868.7153</v>
+        <v>38868.8566</v>
       </c>
       <c r="I6" s="1">
-        <v>1106.4183</v>
+        <v>950.0473</v>
       </c>
       <c r="J6" s="1">
-        <v>39975.1336</v>
+        <v>39818.9039</v>
       </c>
       <c r="K6" s="1">
-        <v>38893.5817</v>
+        <v>39049.9527</v>
       </c>
       <c r="L6" s="1">
-        <v>11.3213</v>
+        <v>11.3441</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>959.2667</v>
+        <v>961.179</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10147.1516</v>
+        <v>-9988.8683</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0275</v>
+        <v>-0.0285</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>11.003</v>
       </c>
       <c r="C7" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D7" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E7" s="1">
-        <v>4417.0666</v>
+        <v>4408.1964</v>
       </c>
       <c r="F7" s="1">
-        <v>996.0253</v>
+        <v>994.2021999999999</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>48600.9842</v>
+        <v>48406.4043</v>
       </c>
       <c r="I7" s="1">
-        <v>959.2667</v>
+        <v>961.179</v>
       </c>
       <c r="J7" s="1">
-        <v>49560.2508</v>
+        <v>49367.5833</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.3197</v>
+        <v>11.3425</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10959.2667</v>
+        <v>-10961.179</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0083</v>
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>11.1102</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E8" s="1">
-        <v>5413.092</v>
+        <v>5402.3986</v>
       </c>
       <c r="F8" s="1">
-        <v>887.4247</v>
+        <v>898.2708</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60140.5343</v>
+        <v>59901.7957</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60140.5343</v>
+        <v>59901.7957</v>
       </c>
       <c r="K8" s="1">
-        <v>60959.2667</v>
+        <v>60961.179</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2615</v>
+        <v>11.2841</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9859.554400000001</v>
+        <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0097</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>10.623</v>
       </c>
       <c r="C9" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D9" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E9" s="1">
-        <v>6300.5166</v>
+        <v>6300.6694</v>
       </c>
       <c r="F9" s="1">
-        <v>954.5746</v>
+        <v>939.47</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>66930.38830000001</v>
+        <v>66797.80710000001</v>
       </c>
       <c r="I9" s="1">
-        <v>140.4456</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67070.8339</v>
+        <v>66797.80710000001</v>
       </c>
       <c r="K9" s="1">
-        <v>70818.8211</v>
+        <v>70961.179</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2402</v>
+        <v>11.2625</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>487.1783</v>
+        <v>486.2159</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9653.2673</v>
+        <v>-9513.784100000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0438</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>9.977</v>
       </c>
       <c r="C10" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E10" s="1">
-        <v>7255.0912</v>
+        <v>7240.1394</v>
       </c>
       <c r="F10" s="1">
-        <v>1051.1354</v>
+        <v>1048.9363</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>72384.04489999999</v>
+        <v>72090.0678</v>
       </c>
       <c r="I10" s="1">
-        <v>487.1783</v>
+        <v>486.2159</v>
       </c>
       <c r="J10" s="1">
-        <v>72871.22319999999</v>
+        <v>72576.2837</v>
       </c>
       <c r="K10" s="1">
-        <v>80959.26669999999</v>
+        <v>80961.179</v>
       </c>
       <c r="L10" s="1">
-        <v>11.159</v>
+        <v>11.1823</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10487.1783</v>
+        <v>-10486.2159</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0545</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>10.5542</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E11" s="1">
-        <v>8306.2266</v>
+        <v>8289.0756</v>
       </c>
       <c r="F11" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87665.5772</v>
+        <v>87309.6627</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87665.5772</v>
+        <v>87309.6627</v>
       </c>
       <c r="K11" s="1">
-        <v>91446.44500000001</v>
+        <v>91447.3949</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0094</v>
+        <v>11.0323</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0579</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>10.7815</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E12" s="1">
-        <v>9253.716700000001</v>
+        <v>9234.6664</v>
       </c>
       <c r="F12" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>99768.947</v>
+        <v>99364.0865</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>99768.947</v>
+        <v>99364.0865</v>
       </c>
       <c r="K12" s="1">
-        <v>101446.445</v>
+        <v>101447.3949</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9628</v>
+        <v>10.9855</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>10.9292</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E13" s="1">
-        <v>10181.2315</v>
+        <v>10160.3266</v>
       </c>
       <c r="F13" s="1">
-        <v>798.5291999999999</v>
+        <v>841.4795</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111272.7149</v>
+        <v>110821.7302</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>111272.7149</v>
+        <v>110821.7302</v>
       </c>
       <c r="K13" s="1">
-        <v>111446.445</v>
+        <v>111447.3949</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9463</v>
+        <v>10.9689</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-8727.285099999999</v>
+        <v>-9215.1266</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>10.337</v>
       </c>
       <c r="C14" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D14" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E14" s="1">
-        <v>10979.7606</v>
+        <v>11001.8061</v>
       </c>
       <c r="F14" s="1">
-        <v>-10979.7606</v>
+        <v>-11001.8061</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>113497.7857</v>
+        <v>113497.9326</v>
       </c>
       <c r="I14" s="1">
-        <v>1272.7149</v>
+        <v>784.8733999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>114770.5007</v>
+        <v>114282.8059</v>
       </c>
       <c r="K14" s="1">
-        <v>120173.73</v>
+        <v>120662.5216</v>
       </c>
       <c r="L14" s="1">
-        <v>10.945</v>
+        <v>10.9675</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>113497.7857</v>
+        <v>113497.9326</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0536</v>
+        <v>-0.0541</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>11.5294</v>
       </c>
       <c r="C2" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D2" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>10.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E3" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="F3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0534</v>
+        <v>-0.0572</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>11.2587</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E4" s="1">
-        <v>1783.6282</v>
+        <v>1780.0664</v>
       </c>
       <c r="F4" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.2131</v>
+        <v>11.2355</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0316</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>11.6434</v>
       </c>
       <c r="C5" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D5" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E5" s="1">
-        <v>2671.8302</v>
+        <v>2666.4891</v>
       </c>
       <c r="F5" s="1">
-        <v>789.4441</v>
+        <v>801.7256</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>31109.1883</v>
+        <v>30984.8699</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31109.1883</v>
+        <v>30984.8699</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2283</v>
+        <v>11.2507</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9191.812900000001</v>
+        <v>-9353.4917</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0342</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>11.3141</v>
       </c>
       <c r="C6" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D6" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E6" s="1">
-        <v>3461.2743</v>
+        <v>3468.2147</v>
       </c>
       <c r="F6" s="1">
-        <v>955.2847</v>
+        <v>939.1105</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>39161.2036</v>
+        <v>39161.3459</v>
       </c>
       <c r="I6" s="1">
-        <v>808.1871</v>
+        <v>646.5083</v>
       </c>
       <c r="J6" s="1">
-        <v>39969.3907</v>
+        <v>39807.8542</v>
       </c>
       <c r="K6" s="1">
-        <v>39191.8129</v>
+        <v>39353.4917</v>
       </c>
       <c r="L6" s="1">
-        <v>11.3229</v>
+        <v>11.3469</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>961.8588999999999</v>
+        <v>959.9361</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9846.3282</v>
+        <v>-9686.572200000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0277</v>
+        <v>-0.0287</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>11.003</v>
       </c>
       <c r="C7" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D7" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E7" s="1">
-        <v>4416.559</v>
+        <v>4407.3252</v>
       </c>
       <c r="F7" s="1">
-        <v>996.2609</v>
+        <v>994.0895</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>48595.3992</v>
+        <v>48396.838</v>
       </c>
       <c r="I7" s="1">
-        <v>961.8588999999999</v>
+        <v>959.9361</v>
       </c>
       <c r="J7" s="1">
-        <v>49557.2581</v>
+        <v>49356.7741</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.321</v>
+        <v>11.3447</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10961.8589</v>
+        <v>-10959.9361</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.008200000000000001</v>
+        <v>-0.0091</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>11.1102</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E8" s="1">
-        <v>5412.82</v>
+        <v>5401.4147</v>
       </c>
       <c r="F8" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60137.5124</v>
+        <v>59890.8861</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60137.5124</v>
+        <v>59890.8861</v>
       </c>
       <c r="K8" s="1">
-        <v>60961.8589</v>
+        <v>60959.9361</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2625</v>
+        <v>11.2859</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0097</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>10.623</v>
       </c>
       <c r="C9" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D9" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E9" s="1">
-        <v>6312.8857</v>
+        <v>6299.6855</v>
       </c>
       <c r="F9" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>67061.7844</v>
+        <v>66787.376</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67061.7844</v>
+        <v>66787.376</v>
       </c>
       <c r="K9" s="1">
-        <v>70961.85890000001</v>
+        <v>70959.93610000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2408</v>
+        <v>11.264</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>487.1538</v>
+        <v>486.1273</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9512.8462</v>
+        <v>-9513.8727</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0439</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>9.977</v>
       </c>
       <c r="C10" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E10" s="1">
-        <v>7254.2393</v>
+        <v>7239.1555</v>
       </c>
       <c r="F10" s="1">
-        <v>1051.133</v>
+        <v>1048.9274</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>72375.54580000001</v>
+        <v>72080.27099999999</v>
       </c>
       <c r="I10" s="1">
-        <v>487.1538</v>
+        <v>486.1273</v>
       </c>
       <c r="J10" s="1">
-        <v>72862.69960000001</v>
+        <v>72566.39840000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80961.85890000001</v>
+        <v>80959.93610000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1606</v>
+        <v>11.1836</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10487.1538</v>
+        <v>-10486.1273</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0545</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>10.5542</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E11" s="1">
-        <v>8305.372300000001</v>
+        <v>8288.082899999999</v>
       </c>
       <c r="F11" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>87656.56050000001</v>
+        <v>87299.2058</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87656.56050000001</v>
+        <v>87299.2058</v>
       </c>
       <c r="K11" s="1">
-        <v>91449.01270000001</v>
+        <v>91446.0634</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0108</v>
+        <v>11.0334</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0579</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>10.7815</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E12" s="1">
-        <v>9252.8624</v>
+        <v>9233.6736</v>
       </c>
       <c r="F12" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>99759.7362</v>
+        <v>99353.4045</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>99759.7362</v>
+        <v>99353.4045</v>
       </c>
       <c r="K12" s="1">
-        <v>101449.0127</v>
+        <v>101446.0634</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9641</v>
+        <v>10.9865</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>10.9292</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E13" s="1">
-        <v>10180.3771</v>
+        <v>10159.3338</v>
       </c>
       <c r="F13" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>111263.3779</v>
+        <v>110810.9018</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>111263.3779</v>
+        <v>110810.9018</v>
       </c>
       <c r="K13" s="1">
-        <v>111449.0127</v>
+        <v>111446.0634</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9474</v>
+        <v>10.9698</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>10.337</v>
       </c>
       <c r="C14" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D14" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E14" s="1">
-        <v>11095.3572</v>
+        <v>11072.4841</v>
       </c>
       <c r="F14" s="1">
-        <v>-11095.3572</v>
+        <v>-11072.4841</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114692.7073</v>
+        <v>114227.0677</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114692.7073</v>
+        <v>114227.0677</v>
       </c>
       <c r="K14" s="1">
-        <v>121449.0127</v>
+        <v>121446.0634</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9459</v>
+        <v>10.9683</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114692.7073</v>
+        <v>114227.0677</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0542</v>
+        <v>-0.0545</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>11.5294</v>
       </c>
       <c r="C2" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D2" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>10.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E3" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="F3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0534</v>
+        <v>-0.0572</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>11.2587</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E4" s="1">
-        <v>1783.6282</v>
+        <v>1780.0664</v>
       </c>
       <c r="F4" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.2131</v>
+        <v>11.2355</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0316</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>11.6434</v>
       </c>
       <c r="C5" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D5" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E5" s="1">
-        <v>2671.8302</v>
+        <v>2666.4891</v>
       </c>
       <c r="F5" s="1">
-        <v>815.4681</v>
+        <v>827.8018</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>31109.1883</v>
+        <v>30984.8699</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31109.1883</v>
+        <v>30984.8699</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2283</v>
+        <v>11.2507</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9494.8217</v>
+        <v>-9657.7156</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0342</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>11.3141</v>
       </c>
       <c r="C6" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D6" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E6" s="1">
-        <v>3487.2984</v>
+        <v>3494.2909</v>
       </c>
       <c r="F6" s="1">
-        <v>928.5032</v>
+        <v>912.2755</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>39455.6426</v>
+        <v>39455.786</v>
       </c>
       <c r="I6" s="1">
-        <v>505.1783</v>
+        <v>342.2844</v>
       </c>
       <c r="J6" s="1">
-        <v>39960.821</v>
+        <v>39798.0704</v>
       </c>
       <c r="K6" s="1">
-        <v>39494.8217</v>
+        <v>39657.7156</v>
       </c>
       <c r="L6" s="1">
-        <v>11.3253</v>
+        <v>11.3493</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>961.8588999999999</v>
+        <v>959.9361</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9543.3194</v>
+        <v>-9382.3483</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0279</v>
+        <v>-0.029</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>11.003</v>
       </c>
       <c r="C7" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D7" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E7" s="1">
-        <v>4415.8016</v>
+        <v>4406.5664</v>
       </c>
       <c r="F7" s="1">
-        <v>996.2609</v>
+        <v>994.0895</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>48587.0651</v>
+        <v>48388.5054</v>
       </c>
       <c r="I7" s="1">
-        <v>961.8588999999999</v>
+        <v>959.9361</v>
       </c>
       <c r="J7" s="1">
-        <v>49548.924</v>
+        <v>49348.4415</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.323</v>
+        <v>11.3467</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10961.8589</v>
+        <v>-10959.9361</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.008200000000000001</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>11.1102</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E8" s="1">
-        <v>5412.0625</v>
+        <v>5400.6559</v>
       </c>
       <c r="F8" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60129.0971</v>
+        <v>59882.4723</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60129.0971</v>
+        <v>59882.4723</v>
       </c>
       <c r="K8" s="1">
-        <v>60961.8589</v>
+        <v>60959.9361</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2641</v>
+        <v>11.2875</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0097</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>10.623</v>
       </c>
       <c r="C9" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D9" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E9" s="1">
-        <v>6312.1282</v>
+        <v>6298.9267</v>
       </c>
       <c r="F9" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>67053.73820000001</v>
+        <v>66779.3312</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67053.73820000001</v>
+        <v>66779.3312</v>
       </c>
       <c r="K9" s="1">
-        <v>70961.85890000001</v>
+        <v>70959.93610000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2421</v>
+        <v>11.2654</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>487.0856</v>
+        <v>486.059</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9512.9144</v>
+        <v>-9513.941000000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0439</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>9.977</v>
       </c>
       <c r="C10" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E10" s="1">
-        <v>7253.4819</v>
+        <v>7238.3967</v>
       </c>
       <c r="F10" s="1">
-        <v>1051.1262</v>
+        <v>1048.9206</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>72367.9889</v>
+        <v>72072.71550000001</v>
       </c>
       <c r="I10" s="1">
-        <v>487.0856</v>
+        <v>486.059</v>
       </c>
       <c r="J10" s="1">
-        <v>72855.0745</v>
+        <v>72558.7745</v>
       </c>
       <c r="K10" s="1">
-        <v>80961.85890000001</v>
+        <v>80959.93610000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.1618</v>
+        <v>11.1848</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10487.0856</v>
+        <v>-10486.059</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0545</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>10.5542</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E11" s="1">
-        <v>8304.608</v>
+        <v>8287.3172</v>
       </c>
       <c r="F11" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>87648.49430000001</v>
+        <v>87291.1412</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>87648.49430000001</v>
+        <v>87291.1412</v>
       </c>
       <c r="K11" s="1">
-        <v>91448.9445</v>
+        <v>91445.9951</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0118</v>
+        <v>11.0345</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0579</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>10.7815</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E12" s="1">
-        <v>9252.098099999999</v>
+        <v>9232.9079</v>
       </c>
       <c r="F12" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>99751.49619999999</v>
+        <v>99345.16620000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>99751.49619999999</v>
+        <v>99345.16620000001</v>
       </c>
       <c r="K12" s="1">
-        <v>101448.9445</v>
+        <v>101445.9951</v>
       </c>
       <c r="L12" s="1">
-        <v>10.965</v>
+        <v>10.9874</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3558,7 +3558,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>10.9292</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E13" s="1">
-        <v>10179.6129</v>
+        <v>10158.5682</v>
       </c>
       <c r="F13" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>111255.025</v>
+        <v>110802.5506</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>111255.025</v>
+        <v>110802.5506</v>
       </c>
       <c r="K13" s="1">
-        <v>111448.9445</v>
+        <v>111445.9951</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9482</v>
+        <v>10.9706</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>10.337</v>
       </c>
       <c r="C14" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D14" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E14" s="1">
-        <v>11094.5929</v>
+        <v>11071.7184</v>
       </c>
       <c r="F14" s="1">
-        <v>-11094.5929</v>
+        <v>-11071.7184</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114684.8071</v>
+        <v>114219.169</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114684.8071</v>
+        <v>114219.169</v>
       </c>
       <c r="K14" s="1">
-        <v>121448.9445</v>
+        <v>121445.9951</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9467</v>
+        <v>10.969</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114684.8071</v>
+        <v>114219.169</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0542</v>
+        <v>-0.0545</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>11.5294</v>
       </c>
       <c r="C2" s="1">
-        <v>11.5294</v>
+        <v>11.5063</v>
       </c>
       <c r="D2" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>10.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9136</v>
+        <v>10.8918</v>
       </c>
       <c r="D3" s="1">
-        <v>10.9136</v>
+        <v>10.9355</v>
       </c>
       <c r="E3" s="1">
-        <v>867.3403</v>
+        <v>865.6135</v>
       </c>
       <c r="F3" s="1">
-        <v>916.2879</v>
+        <v>914.4529</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9465.8051</v>
+        <v>9428.0892</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>11.5295</v>
+        <v>11.5525</v>
       </c>
       <c r="M3" s="1">
         <v>0.5</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.0534</v>
+        <v>-0.0572</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>11.2587</v>
       </c>
       <c r="C4" s="1">
-        <v>11.2586</v>
+        <v>11.2362</v>
       </c>
       <c r="D4" s="1">
-        <v>11.2587</v>
+        <v>11.2813</v>
       </c>
       <c r="E4" s="1">
-        <v>1783.6282</v>
+        <v>1780.0664</v>
       </c>
       <c r="F4" s="1">
-        <v>888.202</v>
+        <v>886.4227</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20081.1568</v>
+        <v>20001.1824</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.2131</v>
+        <v>11.2355</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0316</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>11.6434</v>
       </c>
       <c r="C5" s="1">
-        <v>11.6434</v>
+        <v>11.6201</v>
       </c>
       <c r="D5" s="1">
-        <v>11.6434</v>
+        <v>11.6667</v>
       </c>
       <c r="E5" s="1">
-        <v>2671.8302</v>
+        <v>2666.4891</v>
       </c>
       <c r="F5" s="1">
-        <v>841.6653</v>
+        <v>854.0515</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>31109.1883</v>
+        <v>30984.8699</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>31109.1883</v>
+        <v>30984.8699</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.2283</v>
+        <v>11.2507</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9799.8454</v>
+        <v>-9963.962600000001</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0342</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>11.3141</v>
       </c>
       <c r="C6" s="1">
-        <v>11.3141</v>
+        <v>11.2915</v>
       </c>
       <c r="D6" s="1">
-        <v>11.3141</v>
+        <v>11.3368</v>
       </c>
       <c r="E6" s="1">
-        <v>3513.4955</v>
+        <v>3520.5406</v>
       </c>
       <c r="F6" s="1">
-        <v>901.5436</v>
+        <v>885.2619</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>39752.0397</v>
+        <v>39752.1841</v>
       </c>
       <c r="I6" s="1">
-        <v>200.1546</v>
+        <v>36.0374</v>
       </c>
       <c r="J6" s="1">
-        <v>39952.1942</v>
+        <v>39788.2215</v>
       </c>
       <c r="K6" s="1">
-        <v>39799.8454</v>
+        <v>39963.9626</v>
       </c>
       <c r="L6" s="1">
-        <v>11.3277</v>
+        <v>11.3517</v>
       </c>
       <c r="M6" s="1">
         <v>0.4</v>
       </c>
       <c r="N6" s="1">
-        <v>961.8588999999999</v>
+        <v>959.9361</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9238.295700000001</v>
+        <v>-9076.1013</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0281</v>
+        <v>-0.0292</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>11.003</v>
       </c>
       <c r="C7" s="1">
-        <v>11.003</v>
+        <v>10.981</v>
       </c>
       <c r="D7" s="1">
-        <v>11.003</v>
+        <v>11.0251</v>
       </c>
       <c r="E7" s="1">
-        <v>4415.0391</v>
+        <v>4405.8025</v>
       </c>
       <c r="F7" s="1">
-        <v>996.2609</v>
+        <v>994.0895</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>48578.6756</v>
+        <v>48380.1175</v>
       </c>
       <c r="I7" s="1">
-        <v>961.8588999999999</v>
+        <v>959.9361</v>
       </c>
       <c r="J7" s="1">
-        <v>49540.5344</v>
+        <v>49340.0535</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>11.3249</v>
+        <v>11.3487</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10961.8589</v>
+        <v>-10959.9361</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.008200000000000001</v>
+        <v>-0.008999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>11.1102</v>
       </c>
       <c r="C8" s="1">
-        <v>11.1102</v>
+        <v>11.088</v>
       </c>
       <c r="D8" s="1">
-        <v>11.1103</v>
+        <v>11.1325</v>
       </c>
       <c r="E8" s="1">
-        <v>5411.3</v>
+        <v>5399.892</v>
       </c>
       <c r="F8" s="1">
-        <v>900.0657</v>
+        <v>898.2708</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60120.6258</v>
+        <v>59874.0026</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>60120.6258</v>
+        <v>59874.0026</v>
       </c>
       <c r="K8" s="1">
-        <v>60961.8589</v>
+        <v>60959.9361</v>
       </c>
       <c r="L8" s="1">
-        <v>11.2657</v>
+        <v>11.2891</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0097</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>10.623</v>
       </c>
       <c r="C9" s="1">
-        <v>10.623</v>
+        <v>10.6017</v>
       </c>
       <c r="D9" s="1">
-        <v>10.623</v>
+        <v>10.6443</v>
       </c>
       <c r="E9" s="1">
-        <v>6311.3658</v>
+        <v>6298.1628</v>
       </c>
       <c r="F9" s="1">
-        <v>941.3537</v>
+        <v>939.47</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>67045.6384</v>
+        <v>66771.23299999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>67045.6384</v>
+        <v>66771.23299999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70961.85890000001</v>
+        <v>70959.93610000001</v>
       </c>
       <c r="L9" s="1">
-        <v>11.2435</v>
+        <v>11.2668</v>
       </c>
       <c r="M9" s="1">
         <v>0.1</v>
       </c>
       <c r="N9" s="1">
-        <v>487.017</v>
+        <v>485.9903</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9512.983</v>
+        <v>-9514.009700000001</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0439</v>
+        <v>-0.0444</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>9.977</v>
       </c>
       <c r="C10" s="1">
-        <v>9.977</v>
+        <v>9.957000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>9.977</v>
+        <v>9.997</v>
       </c>
       <c r="E10" s="1">
-        <v>7252.7194</v>
+        <v>7237.6328</v>
       </c>
       <c r="F10" s="1">
-        <v>1051.1193</v>
+        <v>1048.9137</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>72360.3817</v>
+        <v>72065.1097</v>
       </c>
       <c r="I10" s="1">
-        <v>487.017</v>
+        <v>485.9903</v>
       </c>
       <c r="J10" s="1">
-        <v>72847.39870000001</v>
+        <v>72551.10000000001</v>
       </c>
       <c r="K10" s="1">
-        <v>80961.85890000001</v>
+        <v>80959.93610000001</v>
       </c>
       <c r="L10" s="1">
-        <v>11.163</v>
+        <v>11.186</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10487.017</v>
+        <v>-10485.9903</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0545</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>10.5542</v>
       </c>
       <c r="C11" s="1">
-        <v>10.5542</v>
+        <v>10.5331</v>
       </c>
       <c r="D11" s="1">
-        <v>10.5542</v>
+        <v>10.5754</v>
       </c>
       <c r="E11" s="1">
-        <v>8303.8387</v>
+        <v>8286.5465</v>
       </c>
       <c r="F11" s="1">
-        <v>947.4901</v>
+        <v>945.5907</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>87640.3744</v>
+        <v>87283.0229</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>87640.3744</v>
+        <v>87283.0229</v>
       </c>
       <c r="K11" s="1">
-        <v>91448.8759</v>
+        <v>91445.9264</v>
       </c>
       <c r="L11" s="1">
-        <v>11.0128</v>
+        <v>11.0355</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0579</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>10.7815</v>
       </c>
       <c r="C12" s="1">
-        <v>10.7815</v>
+        <v>10.7599</v>
       </c>
       <c r="D12" s="1">
-        <v>10.7815</v>
+        <v>10.8031</v>
       </c>
       <c r="E12" s="1">
-        <v>9251.328799999999</v>
+        <v>9232.137199999999</v>
       </c>
       <c r="F12" s="1">
-        <v>927.5146999999999</v>
+        <v>925.6602</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>99743.20140000001</v>
+        <v>99336.8731</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>99743.20140000001</v>
+        <v>99336.8731</v>
       </c>
       <c r="K12" s="1">
-        <v>101448.8759</v>
+        <v>101445.9264</v>
       </c>
       <c r="L12" s="1">
-        <v>10.9659</v>
+        <v>10.9883</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0215</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>10.9292</v>
       </c>
       <c r="C13" s="1">
-        <v>10.9292</v>
+        <v>10.9073</v>
       </c>
       <c r="D13" s="1">
-        <v>10.9292</v>
+        <v>10.9511</v>
       </c>
       <c r="E13" s="1">
-        <v>10178.8435</v>
+        <v>10157.7974</v>
       </c>
       <c r="F13" s="1">
-        <v>914.9801</v>
+        <v>913.1503</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>111246.6166</v>
+        <v>110794.1439</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>111246.6166</v>
+        <v>110794.1439</v>
       </c>
       <c r="K13" s="1">
-        <v>111448.8759</v>
+        <v>111445.9264</v>
       </c>
       <c r="L13" s="1">
-        <v>10.9491</v>
+        <v>10.9715</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0137</v>
+        <v>0.0133</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>10.337</v>
       </c>
       <c r="C14" s="1">
-        <v>10.337</v>
+        <v>10.3163</v>
       </c>
       <c r="D14" s="1">
-        <v>10.337</v>
+        <v>10.3577</v>
       </c>
       <c r="E14" s="1">
-        <v>11093.8236</v>
+        <v>11070.9477</v>
       </c>
       <c r="F14" s="1">
-        <v>-11093.8236</v>
+        <v>-11070.9477</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>114676.8543</v>
+        <v>114211.2179</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>114676.8543</v>
+        <v>114211.2179</v>
       </c>
       <c r="K14" s="1">
-        <v>121448.8759</v>
+        <v>121445.9264</v>
       </c>
       <c r="L14" s="1">
-        <v>10.9474</v>
+        <v>10.9698</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>114676.8543</v>
+        <v>114211.2179</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0542</v>
+        <v>-0.0545</v>
       </c>
     </row>
   </sheetData>
@@ -4451,7 +4451,7 @@
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>10.9481</v>
+        <v>10.9701</v>
       </c>
       <c r="D3" s="1">
-        <v>10.945</v>
+        <v>10.9675</v>
       </c>
       <c r="E3" s="1">
-        <v>10.9459</v>
+        <v>10.9683</v>
       </c>
       <c r="F3" s="1">
-        <v>10.9467</v>
+        <v>10.969</v>
       </c>
       <c r="G3" s="1">
-        <v>10.9474</v>
+        <v>10.9698</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0994</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.07389999999999999</v>
+        <v>-0.0863</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.0726</v>
+        <v>-0.0851</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.0733</v>
+        <v>-0.0858</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.0735</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.0737</v>
+        <v>-0.0862</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1357</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1312</v>
+        <v>0.1317</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1314</v>
+        <v>0.132</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1316</v>
+        <v>0.1321</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1317</v>
+        <v>0.1322</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1317</v>
+        <v>0.1322</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.8827</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.7181999999999999</v>
+        <v>-0.8093</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.7073</v>
+        <v>-0.799</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.7112000000000001</v>
+        <v>-0.803</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.7126</v>
+        <v>-0.8044</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.7139</v>
+        <v>-0.8057</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.08160000000000001</v>
+        <v>-0.0885</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.0799</v>
+        <v>-0.0871</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.0808</v>
+        <v>-0.0878</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.0809</v>
+        <v>-0.08790000000000001</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.081</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>1442.0872</v>
+        <v>1439.2016</v>
       </c>
       <c r="D8" s="1">
-        <v>1446.445</v>
+        <v>1447.3949</v>
       </c>
       <c r="E8" s="1">
-        <v>1449.0127</v>
+        <v>1446.0634</v>
       </c>
       <c r="F8" s="1">
-        <v>1448.9445</v>
+        <v>1445.9951</v>
       </c>
       <c r="G8" s="1">
-        <v>1448.8759</v>
+        <v>1445.9264</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P104_KFSDIV.xlsx
+++ b/output/1Y_P104_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>2229.4632</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9405</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9537</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9406</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9405</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
